--- a/Statystyki_2018/Template/aglc_.xlsx
+++ b/Statystyki_2018/Template/aglc_.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Ilość</t>
   </si>
@@ -39,18 +39,18 @@
     <t>Sędziowie SSO</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Sędziowie SSR (del)</t>
   </si>
   <si>
-    <t>11</t>
+    <t>0</t>
   </si>
   <si>
     <t>Pracownicy administracyjni:</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Pracownicy Obsługi</t>
   </si>
   <si>
@@ -99,42 +99,84 @@
     <t xml:space="preserve">Pozostało z poprzedniego okresu </t>
   </si>
   <si>
+    <t>123.15</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
     <t>wpływ</t>
   </si>
   <si>
-    <t>123.15</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>62</t>
   </si>
   <si>
     <t>załatwiono</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
     <t xml:space="preserve">pozostało do załatwienia </t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>zaległość od 3 do 6 m-cy</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>zaległość od 6 do 12 m-cy</t>
   </si>
   <si>
-    <t>55</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>66</t>
   </si>
   <si>
     <t>zaległość od 12 do 24 m-cy</t>
   </si>
   <si>
-    <t>3</t>
+    <t>67</t>
   </si>
   <si>
     <t>zaległość od 24 do 36 m-cy</t>
   </si>
   <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
     <t>zaległość od 36 do 60 m-cy</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
     <t xml:space="preserve">zaległość powyżej 60 m-cy </t>
   </si>
   <si>
@@ -153,10 +195,28 @@
     <t>Odrocz publ.</t>
   </si>
   <si>
+    <t>Kordyka Krystian</t>
+  </si>
+  <si>
+    <t>Kowalewska Ala</t>
+  </si>
+  <si>
+    <t>Kowalewska-KowalewskaKowalewska Ula</t>
+  </si>
+  <si>
     <t>Nowak Jan</t>
   </si>
   <si>
+    <t>6023.15</t>
+  </si>
+  <si>
+    <t>8023.15</t>
+  </si>
+  <si>
     <t>Sokołowski Michał</t>
+  </si>
+  <si>
+    <t>trzaskowski tomasz</t>
   </si>
   <si>
     <t xml:space="preserve">Sprawozdanie miesięczne za miesiąc Lipiec 2018 roku </t>
@@ -737,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32E33B9-4139-4120-9064-0099E446800B}">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
@@ -750,13 +810,13 @@
   <sheetData>
     <row r="1" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -782,10 +842,10 @@
     </row>
     <row r="2" ht="15.75">
       <c r="A2" s="16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -809,7 +869,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
@@ -842,7 +902,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -864,81 +924,81 @@
         <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="X4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B5" s="22">
         <v>0</v>
@@ -1018,7 +1078,7 @@
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B6" s="22">
         <v>0</v>
@@ -1093,6 +1153,326 @@
         <v>0</v>
       </c>
       <c r="Z6" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="22">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0</v>
+      </c>
+      <c r="S7" s="22">
+        <v>0</v>
+      </c>
+      <c r="T7" s="22">
+        <v>0</v>
+      </c>
+      <c r="U7" s="22">
+        <v>0</v>
+      </c>
+      <c r="V7" s="22">
+        <v>0</v>
+      </c>
+      <c r="W7" s="22">
+        <v>0</v>
+      </c>
+      <c r="X7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="22">
+        <v>2038</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="22">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="22">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0</v>
+      </c>
+      <c r="S8" s="22">
+        <v>0</v>
+      </c>
+      <c r="T8" s="22">
+        <v>0</v>
+      </c>
+      <c r="U8" s="22">
+        <v>0</v>
+      </c>
+      <c r="V8" s="22">
+        <v>0</v>
+      </c>
+      <c r="W8" s="22">
+        <v>0</v>
+      </c>
+      <c r="X8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="22">
+        <v>2056</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="22">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
+      <c r="O9" s="22">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>0</v>
+      </c>
+      <c r="R9" s="22">
+        <v>0</v>
+      </c>
+      <c r="S9" s="22">
+        <v>0</v>
+      </c>
+      <c r="T9" s="22">
+        <v>0</v>
+      </c>
+      <c r="U9" s="22">
+        <v>0</v>
+      </c>
+      <c r="V9" s="22">
+        <v>0</v>
+      </c>
+      <c r="W9" s="22">
+        <v>0</v>
+      </c>
+      <c r="X9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0</v>
+      </c>
+      <c r="M10" s="22">
+        <v>0</v>
+      </c>
+      <c r="N10" s="22">
+        <v>0</v>
+      </c>
+      <c r="O10" s="22">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>0</v>
+      </c>
+      <c r="R10" s="22">
+        <v>0</v>
+      </c>
+      <c r="S10" s="22">
+        <v>0</v>
+      </c>
+      <c r="T10" s="22">
+        <v>0</v>
+      </c>
+      <c r="U10" s="22">
+        <v>0</v>
+      </c>
+      <c r="V10" s="22">
+        <v>0</v>
+      </c>
+      <c r="W10" s="22">
+        <v>0</v>
+      </c>
+      <c r="X10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1164,302 +1544,320 @@
       <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="B2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" ht="15.75">
       <c r="A3" s="15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.75">
       <c r="A4" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" ht="15.75">
       <c r="A5" s="15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="15.75">
       <c r="A6" s="15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" ht="15.75">
       <c r="A7" s="15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" ht="15.75">
       <c r="A8" s="15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" ht="15.75">
       <c r="A9" s="15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" ht="15.75">
       <c r="A10" s="15" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="15.75">
       <c r="A11" s="15" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1470,7 +1868,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678C2C53-6606-4292-91AA-C7B01CE342A2}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -1483,7 +1881,7 @@
   <sheetData>
     <row r="1" ht="15.75">
       <c r="A1" s="19" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -1511,7 +1909,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -1524,7 +1922,7 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -1532,45 +1930,45 @@
     <row r="2">
       <c r="A2" s="20"/>
       <c r="B2" s="9" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="9" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="9" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="9" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="9" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="P2" s="10"/>
       <c r="Q2" s="9" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="S2" s="10"/>
       <c r="T2" s="3"/>
@@ -1578,16 +1976,96 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="9" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="Y2" s="10">
         <v>6</v>
       </c>
       <c r="Z2" s="10"/>
     </row>
+    <row r="3">
+      <c r="A3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0</v>
+      </c>
+      <c r="M3" s="22">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22">
+        <v>0</v>
+      </c>
+      <c r="O3" s="22">
+        <v>0</v>
+      </c>
+      <c r="P3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>0</v>
+      </c>
+      <c r="R3" s="22">
+        <v>0</v>
+      </c>
+      <c r="S3" s="22">
+        <v>0</v>
+      </c>
+      <c r="T3" s="22">
+        <v>0</v>
+      </c>
+      <c r="U3" s="22">
+        <v>0</v>
+      </c>
+      <c r="V3" s="22">
+        <v>0</v>
+      </c>
+      <c r="W3" s="22">
+        <v>0</v>
+      </c>
+      <c r="X3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="22">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B4" s="22">
         <v>0</v>
@@ -1662,15 +2140,12 @@
         <v>0</v>
       </c>
       <c r="Z4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B5" s="22">
         <v>0</v>
@@ -1747,7 +2222,244 @@
       <c r="Z5" s="22">
         <v>0</v>
       </c>
-      <c r="AA5" s="22">
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+      <c r="O6" s="22">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0</v>
+      </c>
+      <c r="S6" s="22">
+        <v>0</v>
+      </c>
+      <c r="T6" s="22">
+        <v>0</v>
+      </c>
+      <c r="U6" s="22">
+        <v>0</v>
+      </c>
+      <c r="V6" s="22">
+        <v>0</v>
+      </c>
+      <c r="W6" s="22">
+        <v>0</v>
+      </c>
+      <c r="X6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="22">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0</v>
+      </c>
+      <c r="S7" s="22">
+        <v>0</v>
+      </c>
+      <c r="T7" s="22">
+        <v>0</v>
+      </c>
+      <c r="U7" s="22">
+        <v>0</v>
+      </c>
+      <c r="V7" s="22">
+        <v>0</v>
+      </c>
+      <c r="W7" s="22">
+        <v>0</v>
+      </c>
+      <c r="X7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="22">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="22">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0</v>
+      </c>
+      <c r="S8" s="22">
+        <v>0</v>
+      </c>
+      <c r="T8" s="22">
+        <v>0</v>
+      </c>
+      <c r="U8" s="22">
+        <v>0</v>
+      </c>
+      <c r="V8" s="22">
+        <v>0</v>
+      </c>
+      <c r="W8" s="22">
+        <v>0</v>
+      </c>
+      <c r="X8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1778,7 +2490,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FA88BA-3979-4DAC-8123-6237ACF2BB30}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C9"/>
@@ -1803,26 +2515,28 @@
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="24" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" s="13"/>
       <c r="D2" s="11"/>
     </row>
     <row r="3" ht="15.75">
       <c r="A3" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="11"/>
     </row>
     <row r="4" ht="15.75">
       <c r="A4" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="11"/>
@@ -1832,7 +2546,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="11"/>
@@ -1842,7 +2556,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="11"/>
@@ -1852,7 +2566,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="11"/>
@@ -1862,7 +2576,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="11"/>
@@ -1872,15 +2586,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="21" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
